--- a/Labs/DatasaurusDozen.xlsx
+++ b/Labs/DatasaurusDozen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Users\DevReady\Desktop\Datasaurus Dozen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18064B0C-E715-42B8-9DCF-5381DFB97CC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8710AC-B599-468D-ABB5-4A10C9BF5FE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F6E7EBEF-D96F-4859-B602-873F8E3A7095}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="21">
   <si>
     <t>x</t>
   </si>
@@ -94,7 +94,10 @@
     <t>Ver 1.0 November 2020 - Naji El Kotob</t>
   </si>
   <si>
-    <t>Download Link</t>
+    <t>https://github.com/NajiElKotob/Awesome-Excel/blob/main/Labs/DatasaurusDozen.xlsx</t>
+  </si>
+  <si>
+    <t>Excel Download Link</t>
   </si>
 </sst>
 </file>
@@ -17502,12 +17505,12 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -17520,12 +17523,16 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{9C904E09-EA71-40DB-A708-D77DDB2EE69C}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{8B55CCA3-9317-41AC-9A17-23A8783FFD48}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
